--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-relationships.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-relationships.xlsx
@@ -15672,16 +15672,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -15704,7 +15696,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -15712,35 +15704,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16043,43 +16017,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -85911,13 +85885,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>4612</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4613</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4614</v>
       </c>
     </row>
@@ -85928,7 +85902,7 @@
       <c r="B2" t="s">
         <v>4816</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5016</v>
       </c>
     </row>
@@ -85939,7 +85913,7 @@
       <c r="B3" t="s">
         <v>4817</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5017</v>
       </c>
     </row>
@@ -85950,7 +85924,7 @@
       <c r="B4" t="s">
         <v>4818</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5018</v>
       </c>
     </row>
@@ -85961,7 +85935,7 @@
       <c r="B5" t="s">
         <v>4819</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5019</v>
       </c>
     </row>
@@ -85972,7 +85946,7 @@
       <c r="B6" t="s">
         <v>4820</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5020</v>
       </c>
     </row>
@@ -85983,7 +85957,7 @@
       <c r="B7" t="s">
         <v>4821</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5021</v>
       </c>
     </row>
@@ -85994,7 +85968,7 @@
       <c r="B8" t="s">
         <v>4822</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5022</v>
       </c>
     </row>
@@ -86005,7 +85979,7 @@
       <c r="B9" t="s">
         <v>4823</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5023</v>
       </c>
     </row>
@@ -86016,7 +85990,7 @@
       <c r="B10" t="s">
         <v>4824</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5024</v>
       </c>
     </row>
@@ -86027,7 +86001,7 @@
       <c r="B11" t="s">
         <v>4825</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>5025</v>
       </c>
     </row>
@@ -86038,7 +86012,7 @@
       <c r="B12" t="s">
         <v>4826</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>5026</v>
       </c>
     </row>
@@ -86049,7 +86023,7 @@
       <c r="B13" t="s">
         <v>4827</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>5027</v>
       </c>
     </row>
@@ -86060,7 +86034,7 @@
       <c r="B14" t="s">
         <v>4828</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5028</v>
       </c>
     </row>
@@ -86071,7 +86045,7 @@
       <c r="B15" t="s">
         <v>4829</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>5029</v>
       </c>
     </row>
@@ -86082,7 +86056,7 @@
       <c r="B16" t="s">
         <v>4830</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5030</v>
       </c>
     </row>
@@ -86093,7 +86067,7 @@
       <c r="B17" t="s">
         <v>4831</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>5031</v>
       </c>
     </row>
@@ -86104,7 +86078,7 @@
       <c r="B18" t="s">
         <v>4832</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>5032</v>
       </c>
     </row>
@@ -86115,7 +86089,7 @@
       <c r="B19" t="s">
         <v>4833</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>5033</v>
       </c>
     </row>
@@ -86126,7 +86100,7 @@
       <c r="B20" t="s">
         <v>4834</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>5034</v>
       </c>
     </row>
@@ -86145,7 +86119,7 @@
       <c r="B22" t="s">
         <v>4835</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>5035</v>
       </c>
     </row>
@@ -86156,7 +86130,7 @@
       <c r="B23" t="s">
         <v>4836</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>5036</v>
       </c>
     </row>
@@ -86167,7 +86141,7 @@
       <c r="B24" t="s">
         <v>4837</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>5037</v>
       </c>
     </row>
@@ -86178,7 +86152,7 @@
       <c r="B25" t="s">
         <v>4838</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>5038</v>
       </c>
     </row>
@@ -86189,7 +86163,7 @@
       <c r="B26" t="s">
         <v>4839</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>5039</v>
       </c>
     </row>
@@ -86200,7 +86174,7 @@
       <c r="B27" t="s">
         <v>4840</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>5040</v>
       </c>
     </row>
@@ -86211,7 +86185,7 @@
       <c r="B28" t="s">
         <v>4841</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>5041</v>
       </c>
     </row>
@@ -86222,7 +86196,7 @@
       <c r="B29" t="s">
         <v>4842</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>5042</v>
       </c>
     </row>
@@ -86233,7 +86207,7 @@
       <c r="B30" t="s">
         <v>4843</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>5043</v>
       </c>
     </row>
@@ -86244,7 +86218,7 @@
       <c r="B31" t="s">
         <v>4844</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>5044</v>
       </c>
     </row>
@@ -86255,7 +86229,7 @@
       <c r="B32" t="s">
         <v>4845</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>5045</v>
       </c>
     </row>
@@ -86266,7 +86240,7 @@
       <c r="B33" t="s">
         <v>4846</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>5046</v>
       </c>
     </row>
@@ -86277,7 +86251,7 @@
       <c r="B34" t="s">
         <v>4847</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>5047</v>
       </c>
     </row>
@@ -86288,7 +86262,7 @@
       <c r="B35" t="s">
         <v>4848</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>5048</v>
       </c>
     </row>
@@ -86299,7 +86273,7 @@
       <c r="B36" t="s">
         <v>4849</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>5049</v>
       </c>
     </row>
@@ -86310,7 +86284,7 @@
       <c r="B37" t="s">
         <v>4850</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>5050</v>
       </c>
     </row>
@@ -86321,7 +86295,7 @@
       <c r="B38" t="s">
         <v>4851</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>5051</v>
       </c>
     </row>
@@ -86332,7 +86306,7 @@
       <c r="B39" t="s">
         <v>4852</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>5052</v>
       </c>
     </row>
@@ -86343,7 +86317,7 @@
       <c r="B40" t="s">
         <v>4853</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>5053</v>
       </c>
     </row>
@@ -86354,7 +86328,7 @@
       <c r="B41" t="s">
         <v>4854</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>5054</v>
       </c>
     </row>
@@ -86365,7 +86339,7 @@
       <c r="B42" t="s">
         <v>4855</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>5055</v>
       </c>
     </row>
@@ -86376,7 +86350,7 @@
       <c r="B43" t="s">
         <v>4856</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>5056</v>
       </c>
     </row>
@@ -86387,7 +86361,7 @@
       <c r="B44" t="s">
         <v>4857</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>5057</v>
       </c>
     </row>
@@ -86398,7 +86372,7 @@
       <c r="B45" t="s">
         <v>4858</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>5058</v>
       </c>
     </row>
@@ -86409,7 +86383,7 @@
       <c r="B46" t="s">
         <v>4859</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>5059</v>
       </c>
     </row>
@@ -86420,7 +86394,7 @@
       <c r="B47" t="s">
         <v>4860</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>5060</v>
       </c>
     </row>
@@ -86431,7 +86405,7 @@
       <c r="B48" t="s">
         <v>4861</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>5061</v>
       </c>
     </row>
@@ -86442,7 +86416,7 @@
       <c r="B49" t="s">
         <v>4862</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>5062</v>
       </c>
     </row>
@@ -86453,7 +86427,7 @@
       <c r="B50" t="s">
         <v>4863</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>5063</v>
       </c>
     </row>
@@ -86464,7 +86438,7 @@
       <c r="B51" t="s">
         <v>4864</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>5064</v>
       </c>
     </row>
@@ -86475,7 +86449,7 @@
       <c r="B52" t="s">
         <v>4865</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>5065</v>
       </c>
     </row>
@@ -86486,7 +86460,7 @@
       <c r="B53" t="s">
         <v>4866</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>5066</v>
       </c>
     </row>
@@ -86497,7 +86471,7 @@
       <c r="B54" t="s">
         <v>4867</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>5067</v>
       </c>
     </row>
@@ -86508,7 +86482,7 @@
       <c r="B55" t="s">
         <v>4868</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>5068</v>
       </c>
     </row>
@@ -86519,7 +86493,7 @@
       <c r="B56" t="s">
         <v>4869</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>5069</v>
       </c>
     </row>
@@ -86530,7 +86504,7 @@
       <c r="B57" t="s">
         <v>4870</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>5070</v>
       </c>
     </row>
@@ -86541,7 +86515,7 @@
       <c r="B58" t="s">
         <v>4871</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>5071</v>
       </c>
     </row>
@@ -86552,7 +86526,7 @@
       <c r="B59" t="s">
         <v>4872</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>5072</v>
       </c>
     </row>
@@ -86563,7 +86537,7 @@
       <c r="B60" t="s">
         <v>4873</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>5073</v>
       </c>
     </row>
@@ -86574,7 +86548,7 @@
       <c r="B61" t="s">
         <v>4874</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>5074</v>
       </c>
     </row>
@@ -86585,7 +86559,7 @@
       <c r="B62" t="s">
         <v>4875</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>5075</v>
       </c>
     </row>
@@ -86596,7 +86570,7 @@
       <c r="B63" t="s">
         <v>4876</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>5076</v>
       </c>
     </row>
@@ -86607,7 +86581,7 @@
       <c r="B64" t="s">
         <v>4877</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>5077</v>
       </c>
     </row>
@@ -86618,7 +86592,7 @@
       <c r="B65" t="s">
         <v>4878</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>5078</v>
       </c>
     </row>
@@ -86629,7 +86603,7 @@
       <c r="B66" t="s">
         <v>4879</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>5079</v>
       </c>
     </row>
@@ -86640,7 +86614,7 @@
       <c r="B67" t="s">
         <v>4880</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>5080</v>
       </c>
     </row>
@@ -86651,7 +86625,7 @@
       <c r="B68" t="s">
         <v>4881</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>5081</v>
       </c>
     </row>
@@ -86662,7 +86636,7 @@
       <c r="B69" t="s">
         <v>4882</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>5082</v>
       </c>
     </row>
@@ -86673,7 +86647,7 @@
       <c r="B70" t="s">
         <v>4883</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>5083</v>
       </c>
     </row>
@@ -86684,7 +86658,7 @@
       <c r="B71" t="s">
         <v>4884</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>5084</v>
       </c>
     </row>
@@ -86695,7 +86669,7 @@
       <c r="B72" t="s">
         <v>4885</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>5085</v>
       </c>
     </row>
@@ -86706,7 +86680,7 @@
       <c r="B73" t="s">
         <v>4886</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>5086</v>
       </c>
     </row>
@@ -86717,7 +86691,7 @@
       <c r="B74" t="s">
         <v>4887</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>5087</v>
       </c>
     </row>
@@ -86728,7 +86702,7 @@
       <c r="B75" t="s">
         <v>4888</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>5088</v>
       </c>
     </row>
@@ -86739,7 +86713,7 @@
       <c r="B76" t="s">
         <v>4889</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>5089</v>
       </c>
     </row>
@@ -86750,7 +86724,7 @@
       <c r="B77" t="s">
         <v>4890</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>5090</v>
       </c>
     </row>
@@ -86761,7 +86735,7 @@
       <c r="B78" t="s">
         <v>4891</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>5091</v>
       </c>
     </row>
@@ -86772,7 +86746,7 @@
       <c r="B79" t="s">
         <v>4892</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>5092</v>
       </c>
     </row>
@@ -86783,7 +86757,7 @@
       <c r="B80" t="s">
         <v>4893</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>5093</v>
       </c>
     </row>
@@ -86794,7 +86768,7 @@
       <c r="B81" t="s">
         <v>4894</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>5094</v>
       </c>
     </row>
@@ -86805,7 +86779,7 @@
       <c r="B82" t="s">
         <v>4895</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>5095</v>
       </c>
     </row>
@@ -86816,7 +86790,7 @@
       <c r="B83" t="s">
         <v>4896</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>5096</v>
       </c>
     </row>
@@ -86827,7 +86801,7 @@
       <c r="B84" t="s">
         <v>4897</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>5097</v>
       </c>
     </row>
@@ -86838,7 +86812,7 @@
       <c r="B85" t="s">
         <v>4898</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>5098</v>
       </c>
     </row>
@@ -86849,7 +86823,7 @@
       <c r="B86" t="s">
         <v>4899</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>5099</v>
       </c>
     </row>
@@ -86860,7 +86834,7 @@
       <c r="B87" t="s">
         <v>4900</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>5100</v>
       </c>
     </row>
@@ -86871,7 +86845,7 @@
       <c r="B88" t="s">
         <v>4901</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>5101</v>
       </c>
     </row>
@@ -86882,7 +86856,7 @@
       <c r="B89" t="s">
         <v>4902</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>5102</v>
       </c>
     </row>
@@ -86893,7 +86867,7 @@
       <c r="B90" t="s">
         <v>4903</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>5103</v>
       </c>
     </row>
@@ -86904,7 +86878,7 @@
       <c r="B91" t="s">
         <v>4904</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>5104</v>
       </c>
     </row>
@@ -86915,7 +86889,7 @@
       <c r="B92" t="s">
         <v>4905</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>5105</v>
       </c>
     </row>
@@ -86926,7 +86900,7 @@
       <c r="B93" t="s">
         <v>4906</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>5106</v>
       </c>
     </row>
@@ -86937,7 +86911,7 @@
       <c r="B94" t="s">
         <v>4907</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>5107</v>
       </c>
     </row>
@@ -86948,7 +86922,7 @@
       <c r="B95" t="s">
         <v>4908</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>5108</v>
       </c>
     </row>
@@ -86959,7 +86933,7 @@
       <c r="B96" t="s">
         <v>4909</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>5109</v>
       </c>
     </row>
@@ -86970,7 +86944,7 @@
       <c r="B97" t="s">
         <v>4910</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>5110</v>
       </c>
     </row>
@@ -86981,7 +86955,7 @@
       <c r="B98" t="s">
         <v>4911</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>5111</v>
       </c>
     </row>
@@ -86992,7 +86966,7 @@
       <c r="B99" t="s">
         <v>4912</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>5112</v>
       </c>
     </row>
@@ -87003,7 +86977,7 @@
       <c r="B100" t="s">
         <v>4913</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>5113</v>
       </c>
     </row>
@@ -87014,7 +86988,7 @@
       <c r="B101" t="s">
         <v>4914</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>5114</v>
       </c>
     </row>
@@ -87025,7 +86999,7 @@
       <c r="B102" t="s">
         <v>4915</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>5115</v>
       </c>
     </row>
@@ -87036,7 +87010,7 @@
       <c r="B103" t="s">
         <v>4916</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>5116</v>
       </c>
     </row>
@@ -87047,7 +87021,7 @@
       <c r="B104" t="s">
         <v>4917</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>5117</v>
       </c>
     </row>
@@ -87058,7 +87032,7 @@
       <c r="B105" t="s">
         <v>4918</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>5118</v>
       </c>
     </row>
@@ -87069,7 +87043,7 @@
       <c r="B106" t="s">
         <v>4919</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>5119</v>
       </c>
     </row>
@@ -87080,7 +87054,7 @@
       <c r="B107" t="s">
         <v>4920</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>5120</v>
       </c>
     </row>
@@ -87091,7 +87065,7 @@
       <c r="B108" t="s">
         <v>4921</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>5121</v>
       </c>
     </row>
@@ -87102,7 +87076,7 @@
       <c r="B109" t="s">
         <v>4922</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>5122</v>
       </c>
     </row>
@@ -87113,7 +87087,7 @@
       <c r="B110" t="s">
         <v>4923</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>5123</v>
       </c>
     </row>
@@ -87124,7 +87098,7 @@
       <c r="B111" t="s">
         <v>4924</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>5124</v>
       </c>
     </row>
@@ -87135,7 +87109,7 @@
       <c r="B112" t="s">
         <v>4925</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>5125</v>
       </c>
     </row>
@@ -87146,7 +87120,7 @@
       <c r="B113" t="s">
         <v>4926</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>5126</v>
       </c>
     </row>
@@ -87157,7 +87131,7 @@
       <c r="B114" t="s">
         <v>4927</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>5127</v>
       </c>
     </row>
@@ -87168,7 +87142,7 @@
       <c r="B115" t="s">
         <v>4928</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>5128</v>
       </c>
     </row>
@@ -87179,7 +87153,7 @@
       <c r="B116" t="s">
         <v>4929</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>5129</v>
       </c>
     </row>
@@ -87190,7 +87164,7 @@
       <c r="B117" t="s">
         <v>4930</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>5130</v>
       </c>
     </row>
@@ -87201,7 +87175,7 @@
       <c r="B118" t="s">
         <v>4931</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>5131</v>
       </c>
     </row>
@@ -87212,7 +87186,7 @@
       <c r="B119" t="s">
         <v>4932</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>5132</v>
       </c>
     </row>
@@ -87223,7 +87197,7 @@
       <c r="B120" t="s">
         <v>4933</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>5133</v>
       </c>
     </row>
@@ -87234,7 +87208,7 @@
       <c r="B121" t="s">
         <v>4934</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>5134</v>
       </c>
     </row>
@@ -87245,7 +87219,7 @@
       <c r="B122" t="s">
         <v>4935</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>5135</v>
       </c>
     </row>
@@ -87256,7 +87230,7 @@
       <c r="B123" t="s">
         <v>4936</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>5136</v>
       </c>
     </row>
@@ -87267,7 +87241,7 @@
       <c r="B124" t="s">
         <v>4937</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>5137</v>
       </c>
     </row>
@@ -87278,7 +87252,7 @@
       <c r="B125" t="s">
         <v>4938</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>5138</v>
       </c>
     </row>
@@ -87289,7 +87263,7 @@
       <c r="B126" t="s">
         <v>4939</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>5139</v>
       </c>
     </row>
@@ -87300,7 +87274,7 @@
       <c r="B127" t="s">
         <v>4940</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>5140</v>
       </c>
     </row>
@@ -87311,7 +87285,7 @@
       <c r="B128" t="s">
         <v>4941</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>5141</v>
       </c>
     </row>
@@ -87322,7 +87296,7 @@
       <c r="B129" t="s">
         <v>4942</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>5142</v>
       </c>
     </row>
@@ -87333,7 +87307,7 @@
       <c r="B130" t="s">
         <v>4943</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>5143</v>
       </c>
     </row>
@@ -87344,7 +87318,7 @@
       <c r="B131" t="s">
         <v>4944</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>5144</v>
       </c>
     </row>
@@ -87355,7 +87329,7 @@
       <c r="B132" t="s">
         <v>4945</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>5145</v>
       </c>
     </row>
@@ -87366,7 +87340,7 @@
       <c r="B133" t="s">
         <v>4946</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>5146</v>
       </c>
     </row>
@@ -87377,7 +87351,7 @@
       <c r="B134" t="s">
         <v>4947</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>5147</v>
       </c>
     </row>
@@ -87388,7 +87362,7 @@
       <c r="B135" t="s">
         <v>4948</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>5148</v>
       </c>
     </row>
@@ -87399,7 +87373,7 @@
       <c r="B136" t="s">
         <v>4949</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>5149</v>
       </c>
     </row>
@@ -87410,7 +87384,7 @@
       <c r="B137" t="s">
         <v>4950</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>5150</v>
       </c>
     </row>
@@ -87421,7 +87395,7 @@
       <c r="B138" t="s">
         <v>4951</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>5151</v>
       </c>
     </row>
@@ -87432,7 +87406,7 @@
       <c r="B139" t="s">
         <v>4952</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>5152</v>
       </c>
     </row>
@@ -87443,7 +87417,7 @@
       <c r="B140" t="s">
         <v>4953</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>5153</v>
       </c>
     </row>
@@ -87454,7 +87428,7 @@
       <c r="B141" t="s">
         <v>4954</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>5154</v>
       </c>
     </row>
@@ -87465,7 +87439,7 @@
       <c r="B142" t="s">
         <v>4955</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>5155</v>
       </c>
     </row>
@@ -87476,7 +87450,7 @@
       <c r="B143" t="s">
         <v>4956</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>5156</v>
       </c>
     </row>
@@ -87487,7 +87461,7 @@
       <c r="B144" t="s">
         <v>4957</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>5157</v>
       </c>
     </row>
@@ -87498,7 +87472,7 @@
       <c r="B145" t="s">
         <v>4958</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>5158</v>
       </c>
     </row>
@@ -87509,7 +87483,7 @@
       <c r="B146" t="s">
         <v>4959</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>5159</v>
       </c>
     </row>
@@ -87520,7 +87494,7 @@
       <c r="B147" t="s">
         <v>4960</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>5160</v>
       </c>
     </row>
@@ -87531,7 +87505,7 @@
       <c r="B148" t="s">
         <v>4961</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>5161</v>
       </c>
     </row>
@@ -87542,7 +87516,7 @@
       <c r="B149" t="s">
         <v>4962</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>5162</v>
       </c>
     </row>
@@ -87553,7 +87527,7 @@
       <c r="B150" t="s">
         <v>4963</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>5163</v>
       </c>
     </row>
@@ -87564,7 +87538,7 @@
       <c r="B151" t="s">
         <v>4964</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>5164</v>
       </c>
     </row>
@@ -87575,7 +87549,7 @@
       <c r="B152" t="s">
         <v>4965</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>5165</v>
       </c>
     </row>
@@ -87586,7 +87560,7 @@
       <c r="B153" t="s">
         <v>4966</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>5166</v>
       </c>
     </row>
@@ -87597,7 +87571,7 @@
       <c r="B154" t="s">
         <v>4967</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>5167</v>
       </c>
     </row>
@@ -87608,7 +87582,7 @@
       <c r="B155" t="s">
         <v>4968</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>5168</v>
       </c>
     </row>
@@ -87619,7 +87593,7 @@
       <c r="B156" t="s">
         <v>4969</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>5169</v>
       </c>
     </row>
@@ -87630,7 +87604,7 @@
       <c r="B157" t="s">
         <v>4970</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>5170</v>
       </c>
     </row>
@@ -87641,7 +87615,7 @@
       <c r="B158" t="s">
         <v>4971</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>5171</v>
       </c>
     </row>
@@ -87652,7 +87626,7 @@
       <c r="B159" t="s">
         <v>4972</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>5172</v>
       </c>
     </row>
@@ -87663,7 +87637,7 @@
       <c r="B160" t="s">
         <v>4973</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>5173</v>
       </c>
     </row>
@@ -87674,7 +87648,7 @@
       <c r="B161" t="s">
         <v>4974</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>5174</v>
       </c>
     </row>
@@ -87685,7 +87659,7 @@
       <c r="B162" t="s">
         <v>4975</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>5175</v>
       </c>
     </row>
@@ -87696,7 +87670,7 @@
       <c r="B163" t="s">
         <v>4976</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>5176</v>
       </c>
     </row>
@@ -87707,7 +87681,7 @@
       <c r="B164" t="s">
         <v>4977</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>5177</v>
       </c>
     </row>
@@ -87718,7 +87692,7 @@
       <c r="B165" t="s">
         <v>4978</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>5178</v>
       </c>
     </row>
@@ -87729,7 +87703,7 @@
       <c r="B166" t="s">
         <v>4979</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>5179</v>
       </c>
     </row>
@@ -87740,7 +87714,7 @@
       <c r="B167" t="s">
         <v>4980</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>5180</v>
       </c>
     </row>
@@ -87751,7 +87725,7 @@
       <c r="B168" t="s">
         <v>4981</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>5181</v>
       </c>
     </row>
@@ -87762,7 +87736,7 @@
       <c r="B169" t="s">
         <v>4982</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>5182</v>
       </c>
     </row>
@@ -87773,7 +87747,7 @@
       <c r="B170" t="s">
         <v>4983</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>5183</v>
       </c>
     </row>
@@ -87784,7 +87758,7 @@
       <c r="B171" t="s">
         <v>4984</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>5184</v>
       </c>
     </row>
@@ -87795,7 +87769,7 @@
       <c r="B172" t="s">
         <v>4985</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>5185</v>
       </c>
     </row>
@@ -87806,7 +87780,7 @@
       <c r="B173" t="s">
         <v>4986</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>5186</v>
       </c>
     </row>
@@ -87817,7 +87791,7 @@
       <c r="B174" t="s">
         <v>4987</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>5187</v>
       </c>
     </row>
@@ -87828,7 +87802,7 @@
       <c r="B175" t="s">
         <v>4988</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>5188</v>
       </c>
     </row>
@@ -87839,7 +87813,7 @@
       <c r="B176" t="s">
         <v>4989</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>5189</v>
       </c>
     </row>
@@ -87850,7 +87824,7 @@
       <c r="B177" t="s">
         <v>4990</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>5190</v>
       </c>
     </row>
@@ -87861,7 +87835,7 @@
       <c r="B178" t="s">
         <v>4991</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>5191</v>
       </c>
     </row>
@@ -87872,7 +87846,7 @@
       <c r="B179" t="s">
         <v>4992</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>5192</v>
       </c>
     </row>
@@ -87883,7 +87857,7 @@
       <c r="B180" t="s">
         <v>4993</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
@@ -87894,7 +87868,7 @@
       <c r="B181" t="s">
         <v>4994</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>5194</v>
       </c>
     </row>
@@ -87905,7 +87879,7 @@
       <c r="B182" t="s">
         <v>4995</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>5195</v>
       </c>
     </row>
@@ -87916,7 +87890,7 @@
       <c r="B183" t="s">
         <v>4996</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>5196</v>
       </c>
     </row>
@@ -87927,7 +87901,7 @@
       <c r="B184" t="s">
         <v>4997</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>5197</v>
       </c>
     </row>
@@ -87938,7 +87912,7 @@
       <c r="B185" t="s">
         <v>4998</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>5198</v>
       </c>
     </row>
@@ -87949,7 +87923,7 @@
       <c r="B186" t="s">
         <v>4999</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>5199</v>
       </c>
     </row>
@@ -87960,7 +87934,7 @@
       <c r="B187" t="s">
         <v>5000</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>5200</v>
       </c>
     </row>
@@ -87971,7 +87945,7 @@
       <c r="B188" t="s">
         <v>5001</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>5201</v>
       </c>
     </row>
@@ -87982,7 +87956,7 @@
       <c r="B189" t="s">
         <v>5002</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>5202</v>
       </c>
     </row>
@@ -87993,7 +87967,7 @@
       <c r="B190" t="s">
         <v>5003</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>5203</v>
       </c>
     </row>
@@ -88004,7 +87978,7 @@
       <c r="B191" t="s">
         <v>5004</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>5204</v>
       </c>
     </row>
@@ -88015,7 +87989,7 @@
       <c r="B192" t="s">
         <v>5005</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>5205</v>
       </c>
     </row>
@@ -88026,7 +88000,7 @@
       <c r="B193" t="s">
         <v>5006</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>5206</v>
       </c>
     </row>
@@ -88037,7 +88011,7 @@
       <c r="B194" t="s">
         <v>5007</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>5207</v>
       </c>
     </row>
@@ -88048,7 +88022,7 @@
       <c r="B195" t="s">
         <v>5008</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>5208</v>
       </c>
     </row>
@@ -88059,7 +88033,7 @@
       <c r="B196" t="s">
         <v>5009</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>5209</v>
       </c>
     </row>
@@ -88070,7 +88044,7 @@
       <c r="B197" t="s">
         <v>5010</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>5210</v>
       </c>
     </row>
@@ -88081,7 +88055,7 @@
       <c r="B198" t="s">
         <v>5011</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>5211</v>
       </c>
     </row>
@@ -88092,7 +88066,7 @@
       <c r="B199" t="s">
         <v>5012</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>5212</v>
       </c>
     </row>
@@ -88103,7 +88077,7 @@
       <c r="B200" t="s">
         <v>5013</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>5213</v>
       </c>
     </row>
@@ -88114,7 +88088,7 @@
       <c r="B201" t="s">
         <v>5014</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>5214</v>
       </c>
     </row>
@@ -88125,7 +88099,7 @@
       <c r="B202" t="s">
         <v>5015</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>5215</v>
       </c>
     </row>
